--- a/outputs/DHAKA3.xlsx
+++ b/outputs/DHAKA3.xlsx
@@ -425,8 +425,8 @@
       <c r="A1" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: ABI is motivated to accomplish their tasks and the subgoal of finding the issue tracker aligns with the overall use case of creating a new issue. The page provides comprehensive information and a section specifically mentioning "Bug Reports, Suggestions, Other Feedback," which would lead ABI to think this is the right step to find the issue tracker.</t>
+Facets: Motivations, Information Processing Style
+Why: The page contains a section titled "Bug Reports, Suggestions, Other Feedback," which is relevant to creating a new issue. ABI, who is motivated to accomplish tasks and uses a comprehensive information processing style, would likely recognize this section as a step toward finding the issue tracker.</t>
         </is>
       </c>
     </row>
@@ -434,8 +434,8 @@
       <c r="A2" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 2. Information Processing Style, 5. Learning Style
-Why: The 'Issues' link is clearly visible at the top of the page, and the page contains comprehensive information about different features and sections, which aligns with ABI's information processing style. The term 'Issues' is intuitive and indicates a place where ABI might find the issue tracker. This action also fits ABI's preference for process-oriented learning, as the step logically follows the subgoal of finding the issue tracker.</t>
+Facets: Information Processing Style, Motivations
+Why: The "Issues" link is prominently displayed at the top of the page, making it easy to find. ABI, who uses a comprehensive information processing style, would likely read through the page and notice this link. Additionally, ABI's motivation to accomplish tasks would drive them to click on the "Issues" link to proceed with creating a new issue.</t>
         </is>
       </c>
     </row>
@@ -443,8 +443,8 @@
       <c r="A3" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking the 'Issues' link, ABI lands on a page explicitly listing various issues, which is aligned with the goal of finding the issue tracker. The presence of a "New issue" button prominently on the page provides a clear indication that ABI is on the right track and making progress toward creating a new issue. The page is well-organized and presents relevant information in a straightforward manner, which supports ABI's comprehensive information processing style.</t>
+Facets: Motivations, Information Processing Style
+Why: After clicking the "Issues" link, ABI will land on a page that clearly lists existing issues and includes a prominent "New issue" button. This page provides a clear indication that ABI is in the right place to create a new issue, aligning with their motivation to accomplish tasks. The layout and information on the page are straightforward, supporting ABI's comprehensive information processing style by providing all necessary information to proceed.</t>
         </is>
       </c>
     </row>
@@ -452,8 +452,8 @@
       <c r="A4" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: The "New issue" button is prominently placed and clearly labeled, indicating the next step in the process of creating a new issue. This aligns with ABI's goal of finding the issue tracker and creating a new issue. The page provides a straightforward interface with relevant options, making it easy for ABI to understand what to do next. ABI's comprehensive information processing style will help them recognize that this is the correct action to take to progress toward their goal.</t>
+Facets: Motivations, Information Processing Style
+Why: The "New issue" button is prominently displayed on the page, making it clear what ABI needs to do next. ABI, who is motivated to accomplish tasks, will likely recognize this as the next step. The page layout is straightforward and provides a clear path forward, aligning with ABI's comprehensive information processing style.</t>
         </is>
       </c>
     </row>
@@ -461,8 +461,8 @@
       <c r="A5" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style, 5. Learning Style
-Why: After clicking the 'New Issue' button, ABI lands on a page that offers clear and distinct options for different types of issues (such as "Bug report", "Suggestion for improvement", etc.), each with a "Get started" button. This clear categorization and labeling align with ABI's motivations to accomplish their task and provide a structured way to proceed, which fits ABI's comprehensive information processing style. The page is straightforward and well-organized, ensuring that ABI knows they are making progress toward their goal and can easily find the information they need to proceed.</t>
+Facets: Motivations, Information Processing Style
+Why: After clicking the "New issue" button, ABI lands on a page that clearly categorizes different types of issues (e.g., Bug report, Suggestion for improvement) with "Get started" buttons next to each category. This clear categorization and call-to-action buttons provide ABI with a straightforward path to proceed, ensuring they know they are making progress toward their goal. The page layout supports ABI's comprehensive information processing style by providing all necessary information in an organized manner.</t>
         </is>
       </c>
     </row>
@@ -470,8 +470,8 @@
       <c r="A6" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: The "Bug report" section is clearly labeled with a "Get started" button, indicating the next step for ABI to take in the process of creating a new issue. The page is straightforward and provides distinct options for different types of issues, making it easy for ABI to understand what to do at this step. This aligns with ABI's motivation to accomplish their task and their comprehensive information processing style, as the action is clearly defined and logically follows from the previous steps.</t>
+Facets: Motivations, Information Processing Style
+Why: The "Get started" button for "Bug report" is clearly labeled and prominently displayed, making it easy for ABI to understand what to do next. ABI, who is motivated to accomplish tasks, will recognize this as the next step. The page layout is straightforward and provides clear instructions, aligning with ABI's comprehensive information processing style.</t>
         </is>
       </c>
     </row>
@@ -479,8 +479,8 @@
       <c r="A7" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: Upon clicking the 'Get Started' button for 'Bug Report,' ABI is directed to a well-structured issue form. This form provides clear fields to fill out, such as the title, JabRef version, operating system, and steps to reproduce the behavior. This setup makes it evident that ABI is on the right path toward creating a new issue. The comprehensive and organized nature of the form aligns with ABI's information processing style, ensuring that they get all the necessary information to proceed. Additionally, the clear instructions and required fields help guide ABI through the process, confirming they are making progress toward their goal.</t>
+Facets: Motivations, Information Processing Style
+Why: After clicking the "Get Started" button for "Bug Report," ABI lands on a detailed form specifically for reporting bugs. The form includes clear fields for entering relevant information, such as the title, version, operating system, and steps to reproduce the behavior. This structured format provides ABI with all the necessary information to proceed, ensuring they know they are making progress toward their goal. The comprehensive layout aligns with ABI's information processing style, and the clear instructions support their motivation to complete the task.</t>
         </is>
       </c>
     </row>
@@ -488,8 +488,8 @@
       <c r="A8" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style, 5. Learning Style
-Why: The bug report form is well-structured with clear labels and instructions for each field that needs to be filled out. ABI's motivation to accomplish the task is supported by the straightforward and organized layout of the form, which aligns with their comprehensive information processing style. The form also provides step-by-step instructions and clear indicators for required fields, which is consistent with ABI's preference for process-oriented learning. Therefore, ABI will know what to do at this step and the page is good enough for ABI to take this action.</t>
+Facets: Motivations, Information Processing Style
+Why: The bug report form is well-structured with clear labels and instructions for each field, making it easy for ABI to understand what information is required. ABI, who is motivated to complete tasks, will find the form straightforward to fill out. The comprehensive layout and detailed instructions align with ABI's information processing style, ensuring they know what to do at this step and feel confident in taking the action.</t>
         </is>
       </c>
     </row>
@@ -497,8 +497,8 @@
       <c r="A9" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: After filling out the Bug Report form, the page provides a clear "Submit new issue" button, which indicates to ABI that they are on the final step of the process. The form is structured and comprehensive, ensuring ABI that they have provided all necessary information. The layout and instructions on the form make it evident that ABI has done the right thing and is making progress toward their goal of submitting the issue. The organized format and clear next steps align with ABI's comprehensive information processing style, ensuring that they feel confident in the progress they are making.</t>
+Facets: Motivations, Information Processing Style
+Why: After filling out the bug report form, ABI will see a completed form with all the information they have entered. The form is well-structured and provides clear fields for each required piece of information, ensuring ABI knows they have done the right thing. The "Submit new issue" button is prominently displayed, indicating the next step. This clear and comprehensive layout aligns with ABI's information processing style and supports their motivation to complete the task, ensuring they feel confident they are making progress toward their goal.</t>
         </is>
       </c>
     </row>
@@ -506,8 +506,8 @@
       <c r="A10" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: The "Submit new issue" button is prominently displayed and clearly labeled, indicating the final step in the process of submitting the bug report. The page's layout and comprehensive form fields ensure that ABI has provided all necessary information. This clear and logical progression aligns with ABI's motivation to complete the task and their comprehensive information processing style. The straightforward interface reassures ABI that they know what to do at this step and that they are making progress toward submitting the issue.</t>
+Facets: Motivations, Information Processing Style
+Why: The "Submit new issue" button is prominently displayed at the bottom of the form, making it clear what ABI needs to do next. ABI, who is motivated to complete tasks, will recognize this as the final step in submitting the bug report. The page layout is straightforward and provides clear instructions, aligning with ABI's comprehensive information processing style. This ensures ABI knows they are making progress toward their goal and feels confident in taking the action.</t>
         </is>
       </c>
     </row>
@@ -515,8 +515,8 @@
       <c r="A11" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking the "Submit new issue" button, ABI is taken to a page that confirms the new issue has been created, with all the details they entered displayed clearly. The issue is marked as "Open," and ABI can see the content they submitted, including the title, version, operating system, steps to reproduce the behavior, and any appended files. This immediate feedback confirms to ABI that they did the right thing and are making progress toward their goal. The well-organized and detailed layout aligns with ABI's comprehensive information processing style, ensuring they have all the information they need and feel confident in the progress made.</t>
+Facets: Motivations, Information Processing Style
+Why: After clicking the "Submit new issue" button, ABI lands on a page that displays the submitted bug report with all the details they entered. The page confirms that the issue has been created and provides a clear view of the information, including the issue number and status. This feedback ensures ABI knows they have done the right thing and are making progress toward their goal. The comprehensive display of the submitted information aligns with ABI's information processing style, providing them with all the necessary information to feel confident in their action.</t>
         </is>
       </c>
     </row>

--- a/outputs/DHAKA3.xlsx
+++ b/outputs/DHAKA3.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,7 +426,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The page contains a section titled "Bug Reports, Suggestions, Other Feedback," which is relevant to creating a new issue. Given Abi's motivation to accomplish tasks and her comprehensive information processing style, she would likely consider finding the issue tracker as a necessary step toward creating a new issue.</t>
+Why: ABI is motivated to accomplish the task of creating a new issue, and finding the issue tracker is a logical step toward achieving this goal. The page contains comprehensive information, including sections on "Bug Reports, Suggestions, Other Feedback" and "Contributing," which are relevant to finding the issue tracker. This aligns with ABI's comprehensive information processing style, as they would read through the provided information to understand the steps needed to create a new issue.</t>
         </is>
       </c>
     </row>
@@ -435,7 +435,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The "Issues" link is prominently displayed at the top of the page, making it easy to find. Given Abi's motivation to accomplish her task and her comprehensive information processing style, she would likely recognize that clicking on the "Issues" link is a logical step toward finding the issue tracker and creating a new issue. The page provides clear navigation options, which aligns with Abi's preference for process-oriented learning.</t>
+Why: The "Issues" link is prominently displayed at the top of the page, making it easy for ABI to identify. Given ABI's motivation to create a new issue and their comprehensive information processing style, they would likely read through the page and recognize that clicking on the "Issues" link is a necessary step to find the issue tracker. The page provides sufficient context and information for ABI to understand that this action is relevant to their goal.</t>
         </is>
       </c>
     </row>
@@ -444,7 +444,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking the "Issues" link, Abi will land on a page that clearly lists existing issues and prominently features a "New issue" button. This page provides a clear indication that she is in the right place to create a new issue, aligning with her motivation to accomplish her task. The layout and labeling of the page are straightforward, which supports Abi's comprehensive information processing style by providing all the necessary information to proceed with creating a new issue.</t>
+Why: After clicking the "Issues" link, ABI will land on a page that clearly lists existing issues and prominently features a "New issue" button. This provides clear feedback that ABI is on the right track and making progress toward their goal of creating a new issue. The page is well-organized and provides all the necessary information for ABI to understand that they are in the correct place to proceed with creating a new issue. This aligns with ABI's motivation to complete the task and their comprehensive information processing style, as the page offers a straightforward path to continue.</t>
         </is>
       </c>
     </row>
@@ -453,7 +453,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The "New issue" button is prominently displayed on the page, making it clear and easy to find. Given Abi's motivation to accomplish her task and her comprehensive information processing style, she would recognize that clicking the "New issue" button is the next logical step toward creating a new issue. The page layout and labeling provide clear guidance, which aligns with Abi's preference for process-oriented learning.</t>
+Why: The "New issue" button is prominently displayed on the page, making it clear and easy for ABI to identify. Given ABI's motivation to create a new issue and their comprehensive information processing style, they would recognize that clicking this button is the next logical step in the process. The page provides a straightforward and intuitive interface, ensuring that ABI knows what to do at this step and feels confident in taking the action.</t>
         </is>
       </c>
     </row>
@@ -462,7 +462,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking the "New issue" button, Abi lands on a page that clearly categorizes different types of issues she can report, such as "Bug report," "Suggestion for improvement," and "Report a security vulnerability." Each category has a "Get started" button, making it clear what to do next. This aligns with Abi's motivation to accomplish her task and her comprehensive information processing style, as the page provides clear and organized options for proceeding with creating a new issue.</t>
+Why: After clicking the "New issue" button, ABI lands on a page that clearly categorizes different types of issues (e.g., Bug report, Suggestion for improvement, Report a security vulnerability). Each category has a "Get started" button, making it clear and straightforward for ABI to proceed with creating the specific type of issue they have in mind. This page provides clear feedback that ABI is making progress toward their goal and offers all the necessary information to continue. This aligns with ABI's motivation to complete the task and their comprehensive information processing style, as the page is well-organized and easy to understand.</t>
         </is>
       </c>
     </row>
@@ -471,7 +471,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The page clearly labels the "Bug report" option with a "Get started" button, making it straightforward for Abi to understand what to do next. Given Abi's motivation to accomplish her task and her comprehensive information processing style, she would recognize that clicking the "Get started" button for "Bug report" is the appropriate action to take. The clear labeling and organization of the page provide the necessary guidance for Abi to proceed confidently.</t>
+Why: The "Get started" button for "Bug report" is clearly labeled and prominently displayed, making it easy for ABI to identify the next step. Given ABI's motivation to create a new issue and their comprehensive information processing style, they would recognize that clicking this button is the appropriate action to proceed with reporting a bug. The page is well-organized and provides clear instructions, ensuring that ABI knows what to do at this step and feels confident in taking the action.</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking the "Get started" button for "Bug report," Abi lands on a detailed form specifically for reporting bugs. The form includes fields for the title, version, operating system, steps to reproduce the behavior, and other relevant details. This clear and structured format aligns with Abi's motivation to accomplish her task and her comprehensive information processing style. The form provides all the necessary fields and instructions, ensuring that Abi knows she is making progress toward her goal and has all the information she needs to complete the bug report.</t>
+Why: After clicking the "Get started" button for "Bug report," ABI lands on a detailed form specifically for reporting bugs. The form is clearly labeled "Issue: Bug report" and provides fields for all necessary information, such as the title, version, operating system, steps to reproduce the behavior, and additional details. This clear structure and comprehensive set of fields align with ABI's motivation to create a new issue and their comprehensive information processing style. ABI will know they are making progress toward their goal and have all the information they need to complete the bug report.</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The bug report form is clearly structured with labeled fields and instructions, making it straightforward for Abi to understand what information is required. Given Abi's motivation to accomplish her task and her comprehensive information processing style, she will know what to do at this step. The form provides clear guidance on what details to include, ensuring that Abi can confidently fill out the form and proceed with creating the bug report.</t>
+Why: The bug report form is clearly structured with labeled fields and instructions, making it straightforward for ABI to understand what information is required. Each section of the form is clearly marked, and the instructions are concise and easy to follow. This aligns with ABI's motivation to create a new issue and their comprehensive information processing style, as the form provides all the necessary details and guidance to complete the task. ABI will know what to do at this step and will feel confident in filling out the form correctly.</t>
         </is>
       </c>
     </row>
@@ -498,7 +498,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: After filling out the bug report form, Abi will see that all the required fields are completed, and the "Submit new issue" button is available. This clear indication that she can submit the form confirms that she has done the right thing and is making progress toward her goal. The form's structure and the presence of a submit button provide the necessary feedback and guidance, ensuring that Abi knows she has provided all the required information and can proceed with submitting the bug report.</t>
+Why: After filling out the bug report form, ABI will see the completed form with all the information they have entered. The form is clearly structured, and the "Submit new issue" button is prominently displayed, providing clear feedback that ABI is ready to submit the bug report. This aligns with ABI's motivation to create a new issue and their comprehensive information processing style, as the form provides a clear and organized way to review the entered information before submission. ABI will know they have done the right thing and are making progress toward their goal.</t>
         </is>
       </c>
     </row>
@@ -507,7 +507,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The "Submit new issue" button is clearly visible and labeled at the bottom of the form, making it straightforward for Abi to understand what to do next. Given Abi's motivation to accomplish her task and her comprehensive information processing style, she will recognize that clicking this button is the final step in submitting the bug report. The page layout and instructions provide clear guidance, ensuring that Abi knows she has completed the form correctly and can proceed with submitting the issue.</t>
+Why: The "Submit new issue" button is prominently displayed at the bottom of the bug report form, making it clear and easy for ABI to identify. Given ABI's motivation to create a new issue and their comprehensive information processing style, they would recognize that clicking this button is the final step to submit the bug report. The page provides a clear and organized way to review the entered information before submission, ensuring that ABI knows what to do at this step and feels confident in taking the action.</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking the "Submit new issue" button, Abi lands on a page that displays the submitted bug report with all the details she entered. The page shows the issue as "Open" and provides options to edit or add comments, confirming that the issue has been successfully created. This clear feedback ensures that Abi knows she did the right thing and is making progress toward her goal. The structured presentation of the submitted issue aligns with Abi's comprehensive information processing style, providing all the information she needs to confirm the successful submission.</t>
+Why: After clicking the "Submit new issue" button, ABI lands on a page that displays the newly created issue with all the details they entered. The issue is clearly labeled with its title and number, and the information is organized in a way that confirms the submission was successful. This provides clear feedback that ABI has done the right thing and is making progress toward their goal. The page also allows for further actions, such as adding comments or editing the issue, which aligns with ABI's comprehensive information processing style by providing all necessary information and options for further interaction.</t>
         </is>
       </c>
     </row>
